--- a/SuppXLS/Scen_Par-CO2Prices.xlsx
+++ b/SuppXLS/Scen_Par-CO2Prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77430EAC-3701-4B13-B90E-E27DE57E5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A44617-0F11-46CF-A4D0-328569510A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -62,9 +62,6 @@
     <t>CO2IND</t>
   </si>
   <si>
-    <t>~TFM_MIG</t>
-  </si>
-  <si>
     <t>invcost</t>
   </si>
   <si>
@@ -86,7 +83,22 @@
     <t>G_DRATE</t>
   </si>
   <si>
-    <t>~InputCell: 3</t>
+    <t>CO2price</t>
+  </si>
+  <si>
+    <t>RECost</t>
+  </si>
+  <si>
+    <t>Drate</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>~InputCell: 1-20</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -504,7 +516,7 @@
         <v>0.04</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
@@ -575,8 +587,8 @@
         <v>2025</v>
       </c>
       <c r="R5" s="1">
-        <f ca="1">OFFSET(A5,0,MATCH($L$4,$B$4:$G$4,0))</f>
-        <v>20.7</v>
+        <f ca="1">OFFSET(A5,0,MATCH($B$14,$B$4:$G$4,0))</f>
+        <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -612,8 +624,8 @@
         <v>2030</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R10" ca="1" si="1">OFFSET(A6,0,MATCH($L$4,$B$4:$G$4,0))</f>
-        <v>28.360793932703427</v>
+        <f t="shared" ref="R6:R10" ca="1" si="1">OFFSET(A6,0,MATCH($B$14,$B$4:$G$4,0))</f>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -650,7 +662,7 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.856745531075724</v>
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -687,7 +699,7 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.23710883586152</v>
+        <v>0</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -724,7 +736,7 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>72.939452814819973</v>
+        <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -761,7 +773,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>99.933371538418086</v>
+        <v>0</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -781,17 +793,64 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f>VLOOKUP($L$4,$A$16:$D$80,B$13,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP($L$4,$A$16:$D$80,C$13,FALSE)</f>
+        <v>H</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP($L$4,$A$16:$D$80,D$13,FALSE)</f>
+        <v>0.05</v>
+      </c>
+    </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="L15" t="s">
-        <v>8</v>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(C14="H","~TFM_MIG","DeACT")</f>
+        <v>~TFM_MIG</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
       <c r="L16" t="s">
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" t="s">
         <v>4</v>
@@ -800,24 +859,36 @@
         <v>5</v>
       </c>
       <c r="P16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W16">
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="L17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>2024</v>
       </c>
       <c r="O17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,W16:W41)</f>
@@ -827,25 +898,74 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="18" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
       <c r="W18">
         <v>2027</v>
       </c>
     </row>
-    <row r="19" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0.02</v>
+      </c>
       <c r="W19">
         <v>2028</v>
       </c>
     </row>
-    <row r="20" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0.01</v>
+      </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W20">
         <v>2029</v>
       </c>
     </row>
-    <row r="21" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f>D16</f>
+        <v>0.1</v>
+      </c>
       <c r="L21" t="s">
         <v>2</v>
       </c>
@@ -856,108 +976,301 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="22" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D26" si="2">D17</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22">
+        <f>$D$14</f>
         <v>0.05</v>
       </c>
       <c r="W22">
         <v>2031</v>
       </c>
     </row>
-    <row r="23" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
       <c r="W23">
         <v>2032</v>
       </c>
     </row>
-    <row r="24" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
       <c r="W24">
         <v>2033</v>
       </c>
     </row>
-    <row r="25" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
       <c r="W25">
         <v>2034</v>
       </c>
     </row>
-    <row r="26" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="str">
+        <f>C16</f>
+        <v>H</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D35" si="3">D16</f>
+        <v>0.1</v>
+      </c>
       <c r="W26">
         <v>2035</v>
       </c>
     </row>
-    <row r="27" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:D27" si="4">C17</f>
+        <v>H</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="W27">
         <v>2036</v>
       </c>
     </row>
-    <row r="28" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:D28" si="5">C18</f>
+        <v>H</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
       <c r="W28">
         <v>2037</v>
       </c>
     </row>
-    <row r="29" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ref="C29:D29" si="6">C19</f>
+        <v>H</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
       <c r="W29">
         <v>2038</v>
       </c>
     </row>
-    <row r="30" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:D30" si="7">C20</f>
+        <v>H</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
       <c r="W30">
         <v>2039</v>
       </c>
     </row>
-    <row r="31" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ref="C31:D31" si="8">C21</f>
+        <v>L</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
       <c r="W31">
         <v>2040</v>
       </c>
     </row>
-    <row r="32" spans="12:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ref="C32:D32" si="9">C22</f>
+        <v>L</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="W32">
         <v>2041</v>
       </c>
     </row>
-    <row r="33" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:D33" si="10">C23</f>
+        <v>L</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
       <c r="W33">
         <v>2042</v>
       </c>
     </row>
-    <row r="34" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:D34" si="11">C24</f>
+        <v>L</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
       <c r="W34">
         <v>2043</v>
       </c>
     </row>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ref="C35:D35" si="12">C25</f>
+        <v>L</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
       <c r="W35">
         <v>2044</v>
       </c>
     </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="W36">
         <v>2045</v>
       </c>
     </row>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="W37">
         <v>2046</v>
       </c>
     </row>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="W38">
         <v>2047</v>
       </c>
     </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="W39">
         <v>2048</v>
       </c>
     </row>
-    <row r="40" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="W40">
         <v>2049</v>
       </c>
     </row>
-    <row r="41" spans="23:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="W41">
         <v>2050</v>
       </c>
